--- a/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
+++ b/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\path1691\Insane-Keyboard\HardwareDesign\PCB\InsaneKeyboard\Project Outputs for InsaneKeyboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24AC98F-BAC9-48C1-B250-D055FDB867DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6D4287-54DF-4D75-A258-69D93DCDF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36255EA7-5F85-47A0-8FA6-F3E1894B23EB}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{2425F43B-2D0A-4B5A-9CFC-98A9B1B0E72E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-InsaneKeyboar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
   <si>
     <t>Comment</t>
   </si>
@@ -93,7 +93,7 @@
 Viewing angle: &gt;170°</t>
   </si>
   <si>
-    <t>BT1</t>
+    <t>BT4</t>
   </si>
   <si>
     <t>1.54inch waveshare eink</t>
@@ -105,7 +105,7 @@
     <t>Batt Lith-ion 3.7V 1.05AH 404852</t>
   </si>
   <si>
-    <t>BT2</t>
+    <t>BT1A, BT1B</t>
   </si>
   <si>
     <t>Battery</t>
@@ -117,7 +117,7 @@
     <t>Power Supply Support Circuit, Adjustable, 1 Channel, PQCC20</t>
   </si>
   <si>
-    <t>Q7</t>
+    <t>Q2A, Q2B</t>
   </si>
   <si>
     <t>CAP 1.5pF 50V 0402</t>
@@ -126,7 +126,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 3.33% +Tol, 3.33% -Tol, C0G, 30ppm/Cel TC, 0.0000015uF, Surface Mount, 0402</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1A, C1B</t>
   </si>
   <si>
     <t>Capacitor 0402</t>
@@ -141,7 +141,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 22uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C18</t>
+    <t>C19A, C19B</t>
   </si>
   <si>
     <t>Capacitor 0603</t>
@@ -159,7 +159,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.01uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C11, C20, C21</t>
+    <t>C9A, C9B, C20A, C20B, C21A, C21B</t>
   </si>
   <si>
     <t>10nF</t>
@@ -171,7 +171,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C8, C12, C13, C19</t>
+    <t>C8A, C8B, C12A, C12B, C13A, C13B, C14A, C14B</t>
   </si>
   <si>
     <t>1uF</t>
@@ -183,7 +183,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 25V, 10% +Tol, 10% -Tol, X5R, 15% TC, 4.7uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C6, C14, C16</t>
+    <t>C6A, C6B, C15A, C15B, C17A, C17B</t>
   </si>
   <si>
     <t>4.7uF</t>
@@ -192,7 +192,7 @@
     <t>CAP 10nF 100V 0603</t>
   </si>
   <si>
-    <t>C10, C15, C17</t>
+    <t>C11A, C11B, C16A, C16B, C18A, C18B</t>
   </si>
   <si>
     <t>CAP 10pF 50V 0603</t>
@@ -201,7 +201,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.00001uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C5A, C5B</t>
   </si>
   <si>
     <t>10pF</t>
@@ -213,7 +213,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 20% +Tol, 20% -Tol, X5R, 15% TC, 10uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C7, C9</t>
+    <t>C7A, C7B, C10A, C10B</t>
   </si>
   <si>
     <t>10uF</t>
@@ -225,7 +225,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.0001uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C2, C3</t>
+    <t>C2A, C2B, C3A, C3B</t>
   </si>
   <si>
     <t>100pF</t>
@@ -237,7 +237,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.22uF, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>C4A, C4B</t>
   </si>
   <si>
     <t>220nF</t>
@@ -249,7 +249,7 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 47uF 10volts *Derate Voltage/Temp</t>
   </si>
   <si>
-    <t>C22</t>
+    <t>C22A, C22B</t>
   </si>
   <si>
     <t>Capacitor 0805</t>
@@ -258,19 +258,16 @@
     <t>47uF</t>
   </si>
   <si>
-    <t>LSM115JE3TR13</t>
-  </si>
-  <si>
-    <t>Rectifier Diode, Schottky, 1 Element, 1A, 15V V(RRM), Silicon, DO-214BA</t>
-  </si>
-  <si>
-    <t>CR1, CR2, CR3, CR4, CR5, CR6, CR7, CR8, CR9, CR10, CR11, CR12, CR13, CR14, CR15, CR16, CR17, CR18, CR19, CR20, CR21, CR22, CR23, CR24, CR25, CR26, CR27, CR28, CR29, CR30, CR31, CR32, CR33, CR34, CR35, CR36</t>
-  </si>
-  <si>
-    <t>DO-214BA_MCH</t>
-  </si>
-  <si>
-    <t>Microchip</t>
+    <t>Diode Schottky</t>
+  </si>
+  <si>
+    <t>Rectifier Diode, Schottky, 1 Phase, 1 Element, 1A, 15V V(RRM), Silicon, DO-214BA</t>
+  </si>
+  <si>
+    <t>D1A, D1B, D3A, D3B, D4A, D4B, D5A, D5B, D6A, D6B, D7A, D7B, D8A, D8B, D9A, D9B, D10A, D10B, D11A, D11B, D12A, D12B, D13A, D13B, D14A, D14B, D15A, D15B, D16A, D16B, D17A, D17B, D18A, D18B, D19A, D19B, D20A, D20B, D21A, D21B, D22A, D22B, D23A, D23B, D24A, D24B, D25A, D25B, D26A, D26B, D27A, D27B, D28A, D28B, D29A, D29B, D30A, D30B, D31A, D31B, D32A, D32B, D33A, D33B, D34A, D34B, D35A, D35B, D36A, D36B, D37A, D37B</t>
+  </si>
+  <si>
+    <t>150pF</t>
   </si>
   <si>
     <t>DPDT</t>
@@ -279,7 +276,7 @@
     <t>Slide Switch, DPDT, Latched, Solder Terminal, Through Hole-right Angle</t>
   </si>
   <si>
-    <t>SW1</t>
+    <t>SW1A, SW1B</t>
   </si>
   <si>
     <t>EFR32BG13P632F512GM32-DR</t>
@@ -288,7 +285,7 @@
     <t>BLue Gecko</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Q1A, Q1B</t>
   </si>
   <si>
     <t>EFR32BG</t>
@@ -300,7 +297,7 @@
     <t>For 50Ohm impedence, Inverted F antenna</t>
   </si>
   <si>
-    <t>ATT1</t>
+    <t>ATT1A, ATT1B</t>
   </si>
   <si>
     <t>F_Inverted</t>
@@ -312,7 +309,7 @@
     <t>Inductor Chip 1.9nH 0.3nH Tolerance 2-Pin 0402 Paper T/R</t>
   </si>
   <si>
-    <t>L1, L2</t>
+    <t>L1A, L1B, L2A, L2B</t>
   </si>
   <si>
     <t>Ferrite 0402</t>
@@ -327,7 +324,7 @@
     <t>Ferrite Chip, 1 Function(s), 0.05A, 2 Pin(s)</t>
   </si>
   <si>
-    <t>L6</t>
+    <t>L6A, L6B</t>
   </si>
   <si>
     <t>Ferrite Bead 600(601) 1LN</t>
@@ -336,7 +333,7 @@
     <t>RFVDD, PAVDD, EFR</t>
   </si>
   <si>
-    <t>L3, L4</t>
+    <t>L3A, L3B, L4A, L4B</t>
   </si>
   <si>
     <t>Ferrite 0603</t>
@@ -348,7 +345,7 @@
     <t>General Purpose Inductor, 10uH, 30%, 1 Element, Ferrite-Core, SMD, 1111</t>
   </si>
   <si>
-    <t>L7</t>
+    <t>L7A, L7B</t>
   </si>
   <si>
     <t>IND 10uH (1x3.2)</t>
@@ -360,7 +357,7 @@
     <t>General Purpose Inductor, 4.7uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
   </si>
   <si>
-    <t>L5</t>
+    <t>L5A, L5B</t>
   </si>
   <si>
     <t>IND 22uH (1.6x4.3)</t>
@@ -372,7 +369,22 @@
     <t>General Purpose Inductor, 22uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
   </si>
   <si>
-    <t>L8</t>
+    <t>L8A, L8B</t>
+  </si>
+  <si>
+    <t>GRN 0603</t>
+  </si>
+  <si>
+    <t>LED, 0603, GREEN, 430MCD, 520NM</t>
+  </si>
+  <si>
+    <t>LED1A, LED1B, LED2A, LED2B, LED3A, LED3B</t>
+  </si>
+  <si>
+    <t>LED 0603</t>
+  </si>
+  <si>
+    <t>LED Green 0603</t>
   </si>
   <si>
     <t>Gateron G Pro 2.0</t>
@@ -381,7 +393,7 @@
     <t>Gateron G Pro 2.0, The 3-Pin switches are compatible with any 3-Pin/5-Pin MX mechanical keyboard</t>
   </si>
   <si>
-    <t>SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11, SW12, SW13, SW14, SW15, SW16, SW17, SW18, SW19, SW20, SW21, SW22, SW23, SW24, SW25, SW26, SW27, SW28, SW29, SW30, SW31, SW32, SW33, SW34, SW35, SW36</t>
+    <t>SW2A, SW2B, SW3A, SW3B, SW4A, SW4B, SW5A, SW5B, SW6A, SW6B, SW7A, SW7B, SW8A, SW8B, SW9A, SW9B, SW10A, SW10B, SW11A, SW11B, SW12A, SW12B, SW13A, SW13B, SW14A, SW14B, SW15A, SW15B, SW16A, SW16B, SW17A, SW17B, SW18A, SW18B, SW19A, SW19B, SW20A, SW20B, SW21A, SW21B, SW22A, SW22B, SW23A, SW23B, SW24A, SW24B, SW25A, SW25B, SW26A, SW26B, SW27A, SW27B, SW28A, SW28B, SW29A, SW29B, SW30A, SW30B, SW31A, SW31B, SW32A, SW32B, SW33A, SW33B, SW34A, SW34B, SW35A, SW35B, SW36A, SW36B</t>
   </si>
   <si>
     <t>Mechanical Switch</t>
@@ -393,7 +405,7 @@
     <t>Mini SWD 0.05" Pitch Connector - 10 Pin SMT Box Header</t>
   </si>
   <si>
-    <t>H17</t>
+    <t>H9A, H9B</t>
   </si>
   <si>
     <t>Mini Simplicity Connector</t>
@@ -408,7 +420,7 @@
     <t>Metal Glaze/thick Film, 0.0625W, 0ohm, Surface Mount, 0402</t>
   </si>
   <si>
-    <t>R1, R2, R4, R5, R20</t>
+    <t>R1A, R1B, R2A, R2B, R3A, R3B, R4A, R4B, R19A, R19B, R27A, R27B, R28A, R28B, R29A, R29B, R34</t>
   </si>
   <si>
     <t>Resistor 0402</t>
@@ -423,7 +435,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 90900ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R18</t>
+    <t>R16A, R16B</t>
   </si>
   <si>
     <t>Resistor 0603</t>
@@ -438,7 +450,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1ohm, 75V, 1% +/-Tol, 200ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>R5A, R5B</t>
   </si>
   <si>
     <t>1R</t>
@@ -450,7 +462,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1240000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R19</t>
+    <t>R17A, R17B</t>
   </si>
   <si>
     <t>1.24MR</t>
@@ -462,7 +474,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 2000000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R9</t>
+    <t>R7A, R7B</t>
   </si>
   <si>
     <t>2MR</t>
@@ -474,7 +486,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 2100000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R15</t>
+    <t>R13A, R13B</t>
   </si>
   <si>
     <t>2.1MR</t>
@@ -486,7 +498,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 4990000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R14</t>
+    <t>R12A, R12B</t>
   </si>
   <si>
     <t>4.99MR</t>
@@ -498,7 +510,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R11, R12, R21, R22, R23, R24, R25, R26, R27</t>
+    <t>R9A, R9B, R10A, R10B, R20A, R20B, R21A, R21B, R22A, R22B, R23A, R23B, R24A, R24B, R25A, R25B, R26A, R26B</t>
   </si>
   <si>
     <t>5.1kR</t>
@@ -510,7 +522,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5620000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R17</t>
+    <t>R15A, R15B</t>
   </si>
   <si>
     <t>5.6MR</t>
@@ -522,7 +534,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 6650000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R16</t>
+    <t>R14A, R14B</t>
   </si>
   <si>
     <t>6.65MR</t>
@@ -534,7 +546,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 7320000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R13</t>
+    <t>R11A, R11B</t>
   </si>
   <si>
     <t>7.32MR</t>
@@ -546,7 +558,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 8060000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R10</t>
+    <t>R8A, R8B</t>
   </si>
   <si>
     <t>8.06MR</t>
@@ -558,7 +570,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 10000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R6, R7</t>
+    <t>R32A, R32B, R33A, R33B</t>
   </si>
   <si>
     <t>10kR</t>
@@ -570,7 +582,7 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R28</t>
+    <t>R6A, R6B, R18A, R18B</t>
   </si>
   <si>
     <t>100R</t>
@@ -582,19 +594,34 @@
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 330000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>R31A, R31B</t>
   </si>
   <si>
     <t>330kR</t>
   </si>
   <si>
+    <t>Rotery Encoder</t>
+  </si>
+  <si>
+    <t>Rotary Position Encoder, Single, 2 Channels</t>
+  </si>
+  <si>
+    <t>MT1A, MT1B</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>SI7021-A20-GM1R</t>
   </si>
   <si>
     <t>Serial Switch/Digital Sensor, 14 Bit(s), 0.40Cel, Square, Surface Mount</t>
   </si>
   <si>
-    <t>Q5</t>
+    <t>Q6A, Q6B</t>
   </si>
   <si>
     <t>Si7021-A20 - Temp</t>
@@ -606,7 +633,7 @@
     <t>Monocryst Solar Cell 184MW 4.15V</t>
   </si>
   <si>
-    <t>BT3</t>
+    <t>BT2A, BT2B</t>
   </si>
   <si>
     <t>Solar panel</t>
@@ -618,7 +645,7 @@
     <t>Keypad Switch, 1 Switches, SPST, Momentary-tactile, 0.05A, 50VDC, 2.55N, Solder Terminal, Surface Mount-straight</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>S1A, S1B</t>
   </si>
   <si>
     <t>TCA6408ARGTR</t>
@@ -627,7 +654,7 @@
     <t>Parallel I/O Port, 8-Bit, 8 I/O, CMOS, PQCC16</t>
   </si>
   <si>
-    <t>Q2, Q3</t>
+    <t>Q3A, Q3B, Q4A, Q4B</t>
   </si>
   <si>
     <t>TCA6408ARGTR - IO Expander</t>
@@ -639,7 +666,7 @@
     <t>Buffer/Inverter Based Peripheral Driver, 3A, PDSO6</t>
   </si>
   <si>
-    <t>Q4, Q6</t>
+    <t>Q5A, Q5B, Q8</t>
   </si>
   <si>
     <t>TPS22919DCKR - Load SW</t>
@@ -651,7 +678,7 @@
     <t>Trans Voltage Suppressor Diode, 300W, 5V V(RWM), Unidirectional, 1 Element, Silicon</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>D2A, D2B</t>
   </si>
   <si>
     <t>TVS</t>
@@ -669,25 +696,22 @@
     <t>USB-C (USB TYPE-C) Receptacle Connector 24 (6+18 Dummy) Position Surface Mount, Right Angle; Through Hole</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>typec</t>
+    <t>J2A, J2B</t>
+  </si>
+  <si>
+    <t>Type C</t>
   </si>
   <si>
     <t>USB-C Power Connector</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>U.FL-R-SMT(10)</t>
   </si>
   <si>
     <t>CONN UMC JACK STR 50 OHM SMD</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J1A, J1B</t>
   </si>
   <si>
     <t>U.FL_connector</t>
@@ -696,25 +720,13 @@
     <t>U.FL connector U.FL-R-SMT(10)</t>
   </si>
   <si>
-    <t>ENCODER</t>
-  </si>
-  <si>
-    <t>Rotary Position Encoder, Single, 2 Channels</t>
-  </si>
-  <si>
-    <t>MT1</t>
-  </si>
-  <si>
-    <t>XDCR_PEC11R-4215F-S0024</t>
-  </si>
-  <si>
     <t>XTAL 38.4MHz</t>
   </si>
   <si>
     <t>Crystal 38.4000MHZ 10PF SMD</t>
   </si>
   <si>
-    <t>X1</t>
+    <t>X1A, X1B</t>
   </si>
   <si>
     <t>32.768kHz</t>
@@ -723,7 +735,7 @@
     <t>Parallel - Fundamental Quartz Crystal, 0.032768MHz Nom</t>
   </si>
   <si>
-    <t>X2</t>
+    <t>X2A, X2B</t>
   </si>
   <si>
     <t>XTAL_32.768KHZ-T</t>
@@ -1108,8 +1120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ECBCFC-48CB-41E6-8AF0-E7420CAF9326}">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DCFDC1-F694-4933-B253-07F63BA5CB3E}">
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1196,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1220,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1244,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1270,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1296,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1322,7 +1334,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1348,7 +1360,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1374,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1400,7 +1412,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1426,7 +1438,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1452,7 +1464,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1478,7 +1490,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1504,7 +1516,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1524,39 +1536,39 @@
         <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1565,22 +1577,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1589,22 +1601,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1613,48 +1625,48 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1663,22 +1675,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1687,22 +1699,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1711,22 +1723,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1735,22 +1747,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1759,22 +1771,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1795,10 +1807,10 @@
         <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1807,74 +1819,72 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1894,13 +1904,13 @@
         <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1920,13 +1930,13 @@
         <v>135</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1946,13 +1956,13 @@
         <v>139</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1972,13 +1982,13 @@
         <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1998,13 +2008,13 @@
         <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F35" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2024,13 +2034,13 @@
         <v>151</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2050,13 +2060,13 @@
         <v>155</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2076,13 +2086,13 @@
         <v>159</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2102,13 +2112,13 @@
         <v>163</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2128,7 +2138,7 @@
         <v>167</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>165</v>
@@ -2154,13 +2164,13 @@
         <v>171</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2180,13 +2190,13 @@
         <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2206,18 +2216,20 @@
         <v>179</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2230,37 +2242,41 @@
         <v>183</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2269,19 +2285,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
@@ -2293,19 +2309,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -2317,126 +2333,126 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J51" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2445,27 +2461,51 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
+++ b/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\path1691\Insane-Keyboard\HardwareDesign\PCB\InsaneKeyboard\Project Outputs for InsaneKeyboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6D4287-54DF-4D75-A258-69D93DCDF62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E96296-7D59-4475-A597-7A0984ACCAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{2425F43B-2D0A-4B5A-9CFC-98A9B1B0E72E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{B8660F46-6A50-4FC0-A80A-AAFD68537AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-InsaneKeyboar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
   <si>
     <t>Comment</t>
   </si>
@@ -57,16 +57,58 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>MFR Part #</t>
-  </si>
-  <si>
-    <t>Mfr_Name</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Case/Package</t>
+  </si>
+  <si>
+    <t>F_Interverted</t>
+  </si>
+  <si>
+    <t>For 50Ohm impedence, Inverted F antenna</t>
+  </si>
+  <si>
+    <t>ATT1</t>
+  </si>
+  <si>
+    <t>F_Inverted</t>
+  </si>
+  <si>
+    <t>Battery 1000mAh</t>
+  </si>
+  <si>
+    <t>Batt Lith-ion 3.7V 1.05AH 404852</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>BL1200P4054481S1PCAC</t>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <t>Monocryst Solar Cell 184MW 4.15V</t>
+  </si>
+  <si>
+    <t>BT2</t>
+  </si>
+  <si>
+    <t>Solar panel</t>
+  </si>
+  <si>
+    <t>SM141K06L</t>
   </si>
   <si>
     <t>1.54inch Waveshare Eink Display</t>
@@ -93,22 +135,412 @@
 Viewing angle: &gt;170°</t>
   </si>
   <si>
-    <t>BT4</t>
+    <t>BT3</t>
   </si>
   <si>
     <t>1.54inch waveshare eink</t>
   </si>
   <si>
-    <t>Battery 1000mAh</t>
-  </si>
-  <si>
-    <t>Batt Lith-ion 3.7V 1.05AH 404852</t>
-  </si>
-  <si>
-    <t>BT1A, BT1B</t>
-  </si>
-  <si>
-    <t>Battery</t>
+    <t>CAP 1.5pF 50V 0402</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 3.33% +Tol, 3.33% -Tol, C0G, 30ppm/Cel TC, 0.0000015uF, Surface Mount, 0402</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Capacitor 0402</t>
+  </si>
+  <si>
+    <t>1.5pF</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R5WB01D</t>
+  </si>
+  <si>
+    <t>Tape and Reel</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>CAP 100pF 100V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.0001uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>Capacitor 0603</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>GCM1885C2A101JA16D</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>CAP 220nF 50V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.22uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>GRM188R71H224KAC4D</t>
+  </si>
+  <si>
+    <t>CAP 10pF 50V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.00001uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>GRM1555C1H100FA01D</t>
+  </si>
+  <si>
+    <t>CAP 4.7uF 25V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 25V, 10% +Tol, 10% -Tol, X5R, 15% TC, 4.7uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C6, C15, C17</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>GRT188R61E475KE13D</t>
+  </si>
+  <si>
+    <t>CAP 10uF 10V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 20% +Tol, 20% -Tol, X5R, 15% TC, 10uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C7, C10</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>GRM188R61A106ME69D</t>
+  </si>
+  <si>
+    <t>CAP 1uF 10V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C8, C12, C13, C14</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>GRM188R61A105KA61D</t>
+  </si>
+  <si>
+    <t>CAP 0.1uF 100V 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.01uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C9, C20, C21, C26</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>GCM188R72A103KA37D</t>
+  </si>
+  <si>
+    <t>CAP 10nF 100V 0603</t>
+  </si>
+  <si>
+    <t>C11, C16, C18</t>
+  </si>
+  <si>
+    <t>22uF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 22uF, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>CAP 22uF 6.3V 0603</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>GRM188R61A226ME15D</t>
+  </si>
+  <si>
+    <t>Reel</t>
+  </si>
+  <si>
+    <t>CAP 47uF 10V 0805</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 47uF 10volts *Derate Voltage/Temp</t>
+  </si>
+  <si>
+    <t>C22, C23, C24, C25</t>
+  </si>
+  <si>
+    <t>CAPACITOR 0805</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>GRM21BR61A476ME15K</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>Diode Schottky</t>
+  </si>
+  <si>
+    <t>Rectifier Diode, Schottky, 1 Phase, 1 Element, 1A, 15V V(RRM), Silicon, DO-214BA</t>
+  </si>
+  <si>
+    <t>D1, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28, D29, D30, D31, D32, D33, D34, D35, D36, D37, D38, D39, D40</t>
+  </si>
+  <si>
+    <t>150pF</t>
+  </si>
+  <si>
+    <t>LSM115JE3/TR13</t>
+  </si>
+  <si>
+    <t>10Packaging</t>
+  </si>
+  <si>
+    <t>SRV05-4-P-T7</t>
+  </si>
+  <si>
+    <t>Trans Voltage Suppressor Diode, 300W, 5V V(RWM), Unidirectional, 1 Element, Silicon</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>D_TVS_Diode</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5V 6TSOP</t>
+  </si>
+  <si>
+    <t>SRV05-4.TCT</t>
+  </si>
+  <si>
+    <t>Mini SWD</t>
+  </si>
+  <si>
+    <t>Mini SWD 0.05" Pitch Connector - 10 Pin SMT Box Header</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>Mini Simplicity Connector</t>
+  </si>
+  <si>
+    <t>Debug Connector Mini SWD - 0.05"</t>
+  </si>
+  <si>
+    <t>4048</t>
+  </si>
+  <si>
+    <t>Female USB Type C</t>
+  </si>
+  <si>
+    <t>USB-C (USB TYPE-C) Receptacle Connector 24 (6+18 Dummy) Position Surface Mount, Right Angle; Through Hole</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Type C</t>
+  </si>
+  <si>
+    <t>USB-C Power Connector</t>
+  </si>
+  <si>
+    <t>USB4125-GF-A_REVA2</t>
+  </si>
+  <si>
+    <t>1.9nH</t>
+  </si>
+  <si>
+    <t>Inductor Chip 1.9nH 0.3nH Tolerance 2-Pin 0402 Paper T/R</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>Ferrite 0402</t>
+  </si>
+  <si>
+    <t>IND 1.9nH 0402</t>
+  </si>
+  <si>
+    <t>LQG15WZ1N9S02D</t>
+  </si>
+  <si>
+    <t>Ferrite Bead 600(601) 1LN</t>
+  </si>
+  <si>
+    <t>RFVDD, PAVDD, EFR</t>
+  </si>
+  <si>
+    <t>L3, L4</t>
+  </si>
+  <si>
+    <t>Ferrite 0603</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D</t>
+  </si>
+  <si>
+    <t>IND 4.7uH 1515</t>
+  </si>
+  <si>
+    <t>General Purpose Inductor, 4.7uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>IND 22uH (1.6x4.3)</t>
+  </si>
+  <si>
+    <t>744031004</t>
+  </si>
+  <si>
+    <t>Farrite Bead 102(1k)</t>
+  </si>
+  <si>
+    <t>Ferrite Chip, 1 Function(s), 0.05A, 2 Pin(s)</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>742841210</t>
+  </si>
+  <si>
+    <t>IND 10uH 1111</t>
+  </si>
+  <si>
+    <t>General Purpose Inductor, 10uH, 30%, 1 Element, Ferrite-Core, SMD, 1111</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>IND 10uH (1x3.2)</t>
+  </si>
+  <si>
+    <t>744029100</t>
+  </si>
+  <si>
+    <t>IND 22uH 1515</t>
+  </si>
+  <si>
+    <t>General Purpose Inductor, 22uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>744031220</t>
+  </si>
+  <si>
+    <t>GRN 0603</t>
+  </si>
+  <si>
+    <t>LED, 0603, GREEN, 430MCD, 520NM</t>
+  </si>
+  <si>
+    <t>LED1, LED2, LED4</t>
+  </si>
+  <si>
+    <t>LED 0603</t>
+  </si>
+  <si>
+    <t>LED Green 0603</t>
+  </si>
+  <si>
+    <t>150060GS75000</t>
+  </si>
+  <si>
+    <t>Tape &amp; Reel (TR)</t>
+  </si>
+  <si>
+    <t>WS2812B</t>
+  </si>
+  <si>
+    <t>Raspberry Pi HAT _40 pin_ Wheeled Robotics Kit</t>
+  </si>
+  <si>
+    <t>LED, LED5, LED6, LED7, LED8, LED9, LED10, LED11, LED12, LED13, LED14, LED15, LED16, LED17, LED18, LED19, LED20, LED21, LED22, LED23, LED24, LED25, LED26, LED27, LED28, LED29, LED30, LED31, LED32, LED33, LED34, LED35, LED36, LED37, LED38, LED39, LED40, LED41</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Rotery Encoder</t>
+  </si>
+  <si>
+    <t>Rotary Position Encoder, Single, 2 Channels</t>
+  </si>
+  <si>
+    <t>MT1</t>
+  </si>
+  <si>
+    <t>PEC12R-4222F-S0024</t>
+  </si>
+  <si>
+    <t>EFR32BG13P632F512GM32-DR</t>
+  </si>
+  <si>
+    <t>BLue Gecko</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>EFR32BG</t>
   </si>
   <si>
     <t>BQ25570RGRR</t>
@@ -117,157 +549,262 @@
     <t>Power Supply Support Circuit, Adjustable, 1 Channel, PQCC20</t>
   </si>
   <si>
-    <t>Q2A, Q2B</t>
-  </si>
-  <si>
-    <t>CAP 1.5pF 50V 0402</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 3.33% +Tol, 3.33% -Tol, C0G, 30ppm/Cel TC, 0.0000015uF, Surface Mount, 0402</t>
-  </si>
-  <si>
-    <t>C1A, C1B</t>
-  </si>
-  <si>
-    <t>Capacitor 0402</t>
-  </si>
-  <si>
-    <t>1.5pF</t>
-  </si>
-  <si>
-    <t>22uF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 22uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C19A, C19B</t>
-  </si>
-  <si>
-    <t>Capacitor 0603</t>
-  </si>
-  <si>
-    <t>CAP 22uF 6.3V 0603</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>CAP 0.1uF 100V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.01uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C9A, C9B, C20A, C20B, C21A, C21B</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>CAP 1uF 10V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C8A, C8B, C12A, C12B, C13A, C13B, C14A, C14B</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>CAP 4.7uF 25V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 25V, 10% +Tol, 10% -Tol, X5R, 15% TC, 4.7uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C6A, C6B, C15A, C15B, C17A, C17B</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>CAP 10nF 100V 0603</t>
-  </si>
-  <si>
-    <t>C11A, C11B, C16A, C16B, C18A, C18B</t>
-  </si>
-  <si>
-    <t>CAP 10pF 50V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.00001uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C5A, C5B</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>CAP 10uF 10V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 10V, 20% +Tol, 20% -Tol, X5R, 15% TC, 10uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C7A, C7B, C10A, C10B</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>CAP 100pF 100V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 5% +Tol, 5% -Tol, C0G, 30ppm/Cel TC, 0.0001uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C2A, C2B, C3A, C3B</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>CAP 220nF 50V 0603</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, 15% TC, 0.22uF, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>C4A, C4B</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>CAP 47uF 10V 0805</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 47uF 10volts *Derate Voltage/Temp</t>
-  </si>
-  <si>
-    <t>C22A, C22B</t>
-  </si>
-  <si>
-    <t>Capacitor 0805</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>Diode Schottky</t>
-  </si>
-  <si>
-    <t>Rectifier Diode, Schottky, 1 Phase, 1 Element, 1A, 15V V(RRM), Silicon, DO-214BA</t>
-  </si>
-  <si>
-    <t>D1A, D1B, D3A, D3B, D4A, D4B, D5A, D5B, D6A, D6B, D7A, D7B, D8A, D8B, D9A, D9B, D10A, D10B, D11A, D11B, D12A, D12B, D13A, D13B, D14A, D14B, D15A, D15B, D16A, D16B, D17A, D17B, D18A, D18B, D19A, D19B, D20A, D20B, D21A, D21B, D22A, D22B, D23A, D23B, D24A, D24B, D25A, D25B, D26A, D26B, D27A, D27B, D28A, D28B, D29A, D29B, D30A, D30B, D31A, D31B, D32A, D32B, D33A, D33B, D34A, D34B, D35A, D35B, D36A, D36B, D37A, D37B</t>
-  </si>
-  <si>
-    <t>150pF</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>HVQCCN</t>
+  </si>
+  <si>
+    <t>TCA6408ARGTR</t>
+  </si>
+  <si>
+    <t>Parallel I/O Port, 8-Bit, 8 I/O, CMOS, PQCC16</t>
+  </si>
+  <si>
+    <t>Q3, Q4</t>
+  </si>
+  <si>
+    <t>TCA6408ARGTR - IO Expander</t>
+  </si>
+  <si>
+    <t>TPS22919</t>
+  </si>
+  <si>
+    <t>Buffer/Inverter Based Peripheral Driver, 3A, PDSO6</t>
+  </si>
+  <si>
+    <t>Q5, Q7, Q8</t>
+  </si>
+  <si>
+    <t>TPS22919DCKR - Load SW</t>
+  </si>
+  <si>
+    <t>TPS22919DCKT</t>
+  </si>
+  <si>
+    <t>SI7021-A20-GM1R</t>
+  </si>
+  <si>
+    <t>Serial Switch/Digital Sensor, 14 Bit(s), 0.40Cel, Square, Surface Mount</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Si7021-A20 - Temp</t>
+  </si>
+  <si>
+    <t>RES 0R 0402</t>
+  </si>
+  <si>
+    <t>Metal Glaze/thick Film, 0.0625W, 0ohm, Surface Mount, 0402</t>
+  </si>
+  <si>
+    <t>R1, R4, R13, R27, R28, R29, R37, R333</t>
+  </si>
+  <si>
+    <t>Resistor 0402</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RES 8.2M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 8200000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Resistor 0603</t>
+  </si>
+  <si>
+    <t>8.2MR</t>
+  </si>
+  <si>
+    <t>RC0603JR-078M2L</t>
+  </si>
+  <si>
+    <t>RES 330K 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 330000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>330kR</t>
+  </si>
+  <si>
+    <t>RC0603JR-07330KL</t>
+  </si>
+  <si>
+    <t>RES 1R 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1ohm, 75V, 1% +/-Tol, 200ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>RC0603FR-071RL</t>
+  </si>
+  <si>
+    <t>RES 100R 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R6, R8, R18</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>RES 4.75M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 4750000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>4.75MR</t>
+  </si>
+  <si>
+    <t>RC0603FR-074M75L</t>
+  </si>
+  <si>
+    <t>RES 5.1K 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
+  </si>
+  <si>
+    <t>5.1kR</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>RES 7.32M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 7320000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>7.32MR</t>
+  </si>
+  <si>
+    <t>RC0402FR-077M32L</t>
+  </si>
+  <si>
+    <t>RES 1.24M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1240000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>1.24MR</t>
+  </si>
+  <si>
+    <t>RC0603FR-071M24L</t>
+  </si>
+  <si>
+    <t>RES 6.65M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 6650000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>6.65MR</t>
+  </si>
+  <si>
+    <t>CRCW06036M65FKEA</t>
+  </si>
+  <si>
+    <t>RES 5.62M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5620000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>5.6MR</t>
+  </si>
+  <si>
+    <t>RC0603JR-075M6L</t>
+  </si>
+  <si>
+    <t>RES 10K 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 10000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R16, R19, R20, R21, R22, R23, R24, R25, R26, R30, R31, R32, R33, R34, R35, R36</t>
+  </si>
+  <si>
+    <t>10kR</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RES 4.99M 0603</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 4990000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>4.99MR</t>
+  </si>
+  <si>
+    <t>RC0603FR-074M99L</t>
+  </si>
+  <si>
+    <t>SPST</t>
+  </si>
+  <si>
+    <t>Keypad Switch, 1 Switches, SPST, Momentary-tactile, 0.05A, 50VDC, 2.55N, Solder Terminal, Surface Mount-straight</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>TL3301NF260QG</t>
   </si>
   <si>
     <t>DPDT</t>
@@ -276,115 +813,10 @@
     <t>Slide Switch, DPDT, Latched, Solder Terminal, Through Hole-right Angle</t>
   </si>
   <si>
-    <t>SW1A, SW1B</t>
-  </si>
-  <si>
-    <t>EFR32BG13P632F512GM32-DR</t>
-  </si>
-  <si>
-    <t>BLue Gecko</t>
-  </si>
-  <si>
-    <t>Q1A, Q1B</t>
-  </si>
-  <si>
-    <t>EFR32BG</t>
-  </si>
-  <si>
-    <t>F_Interverted</t>
-  </si>
-  <si>
-    <t>For 50Ohm impedence, Inverted F antenna</t>
-  </si>
-  <si>
-    <t>ATT1A, ATT1B</t>
-  </si>
-  <si>
-    <t>F_Inverted</t>
-  </si>
-  <si>
-    <t>1.9nH</t>
-  </si>
-  <si>
-    <t>Inductor Chip 1.9nH 0.3nH Tolerance 2-Pin 0402 Paper T/R</t>
-  </si>
-  <si>
-    <t>L1A, L1B, L2A, L2B</t>
-  </si>
-  <si>
-    <t>Ferrite 0402</t>
-  </si>
-  <si>
-    <t>IND 1.9nH 0402</t>
-  </si>
-  <si>
-    <t>Farrite Bead 102(1k)</t>
-  </si>
-  <si>
-    <t>Ferrite Chip, 1 Function(s), 0.05A, 2 Pin(s)</t>
-  </si>
-  <si>
-    <t>L6A, L6B</t>
-  </si>
-  <si>
-    <t>Ferrite Bead 600(601) 1LN</t>
-  </si>
-  <si>
-    <t>RFVDD, PAVDD, EFR</t>
-  </si>
-  <si>
-    <t>L3A, L3B, L4A, L4B</t>
-  </si>
-  <si>
-    <t>Ferrite 0603</t>
-  </si>
-  <si>
-    <t>IND 10uH 1111</t>
-  </si>
-  <si>
-    <t>General Purpose Inductor, 10uH, 30%, 1 Element, Ferrite-Core, SMD, 1111</t>
-  </si>
-  <si>
-    <t>L7A, L7B</t>
-  </si>
-  <si>
-    <t>IND 10uH (1x3.2)</t>
-  </si>
-  <si>
-    <t>IND 4.7uH 1515</t>
-  </si>
-  <si>
-    <t>General Purpose Inductor, 4.7uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
-  </si>
-  <si>
-    <t>L5A, L5B</t>
-  </si>
-  <si>
-    <t>IND 22uH (1.6x4.3)</t>
-  </si>
-  <si>
-    <t>IND 22uH 1515</t>
-  </si>
-  <si>
-    <t>General Purpose Inductor, 22uH, 30%, 1 Element, Ferrite-Core, SMD, 1515</t>
-  </si>
-  <si>
-    <t>L8A, L8B</t>
-  </si>
-  <si>
-    <t>GRN 0603</t>
-  </si>
-  <si>
-    <t>LED, 0603, GREEN, 430MCD, 520NM</t>
-  </si>
-  <si>
-    <t>LED1A, LED1B, LED2A, LED2B, LED3A, LED3B</t>
-  </si>
-  <si>
-    <t>LED 0603</t>
-  </si>
-  <si>
-    <t>LED Green 0603</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>EG2208</t>
   </si>
   <si>
     <t>Gateron G Pro 2.0</t>
@@ -393,340 +825,22 @@
     <t>Gateron G Pro 2.0, The 3-Pin switches are compatible with any 3-Pin/5-Pin MX mechanical keyboard</t>
   </si>
   <si>
-    <t>SW2A, SW2B, SW3A, SW3B, SW4A, SW4B, SW5A, SW5B, SW6A, SW6B, SW7A, SW7B, SW8A, SW8B, SW9A, SW9B, SW10A, SW10B, SW11A, SW11B, SW12A, SW12B, SW13A, SW13B, SW14A, SW14B, SW15A, SW15B, SW16A, SW16B, SW17A, SW17B, SW18A, SW18B, SW19A, SW19B, SW20A, SW20B, SW21A, SW21B, SW22A, SW22B, SW23A, SW23B, SW24A, SW24B, SW25A, SW25B, SW26A, SW26B, SW27A, SW27B, SW28A, SW28B, SW29A, SW29B, SW30A, SW30B, SW31A, SW31B, SW32A, SW32B, SW33A, SW33B, SW34A, SW34B, SW35A, SW35B, SW36A, SW36B</t>
+    <t>SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11, SW12, SW13, SW14, SW15, SW16, SW17, SW18, SW19, SW20, SW21, SW22, SW23, SW24, SW25, SW26, SW27, SW28, SW29, SW30, SW31, SW32, SW33, SW34, SW35, SW36, SW37, SW38, SW39</t>
   </si>
   <si>
     <t>Mechanical Switch</t>
   </si>
   <si>
-    <t>Mini SWD</t>
-  </si>
-  <si>
-    <t>Mini SWD 0.05" Pitch Connector - 10 Pin SMT Box Header</t>
-  </si>
-  <si>
-    <t>H9A, H9B</t>
-  </si>
-  <si>
-    <t>Mini Simplicity Connector</t>
-  </si>
-  <si>
-    <t>Debug Connector Mini SWD - 0.05"</t>
-  </si>
-  <si>
-    <t>RES 0R 0402</t>
-  </si>
-  <si>
-    <t>Metal Glaze/thick Film, 0.0625W, 0ohm, Surface Mount, 0402</t>
-  </si>
-  <si>
-    <t>R1A, R1B, R2A, R2B, R3A, R3B, R4A, R4B, R19A, R19B, R27A, R27B, R28A, R28B, R29A, R29B, R34</t>
-  </si>
-  <si>
-    <t>Resistor 0402</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>RES 0.9M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 90900ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R16A, R16B</t>
-  </si>
-  <si>
-    <t>Resistor 0603</t>
-  </si>
-  <si>
-    <t>90.9kR</t>
-  </si>
-  <si>
-    <t>RES 1R 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1ohm, 75V, 1% +/-Tol, 200ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R5A, R5B</t>
-  </si>
-  <si>
-    <t>1R</t>
-  </si>
-  <si>
-    <t>RES 1.24M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 1240000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R17A, R17B</t>
-  </si>
-  <si>
-    <t>1.24MR</t>
-  </si>
-  <si>
-    <t>RES 2M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 2000000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R7A, R7B</t>
-  </si>
-  <si>
-    <t>2MR</t>
-  </si>
-  <si>
-    <t>RES 2.1M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 2100000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R13A, R13B</t>
-  </si>
-  <si>
-    <t>2.1MR</t>
-  </si>
-  <si>
-    <t>RES 4.99M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 4990000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R12A, R12B</t>
-  </si>
-  <si>
-    <t>4.99MR</t>
-  </si>
-  <si>
-    <t>RES 5.1K 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R9A, R9B, R10A, R10B, R20A, R20B, R21A, R21B, R22A, R22B, R23A, R23B, R24A, R24B, R25A, R25B, R26A, R26B</t>
-  </si>
-  <si>
-    <t>5.1kR</t>
-  </si>
-  <si>
-    <t>RES 5.62M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 5620000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R15A, R15B</t>
-  </si>
-  <si>
-    <t>5.6MR</t>
-  </si>
-  <si>
-    <t>RES 6.65M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 6650000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R14A, R14B</t>
-  </si>
-  <si>
-    <t>6.65MR</t>
-  </si>
-  <si>
-    <t>RES 7.32M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 7320000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R11A, R11B</t>
-  </si>
-  <si>
-    <t>7.32MR</t>
-  </si>
-  <si>
-    <t>RES 8M 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 8060000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R8A, R8B</t>
-  </si>
-  <si>
-    <t>8.06MR</t>
-  </si>
-  <si>
-    <t>RES 10K 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 10000ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R32A, R32B, R33A, R33B</t>
-  </si>
-  <si>
-    <t>10kR</t>
-  </si>
-  <si>
-    <t>RES 100R 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 100ohm, 75V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R6A, R6B, R18A, R18B</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>RES 330K 0603</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.1W, 330000ohm, 75V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R31A, R31B</t>
-  </si>
-  <si>
-    <t>330kR</t>
-  </si>
-  <si>
-    <t>Rotery Encoder</t>
-  </si>
-  <si>
-    <t>Rotary Position Encoder, Single, 2 Channels</t>
-  </si>
-  <si>
-    <t>MT1A, MT1B</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SI7021-A20-GM1R</t>
-  </si>
-  <si>
-    <t>Serial Switch/Digital Sensor, 14 Bit(s), 0.40Cel, Square, Surface Mount</t>
-  </si>
-  <si>
-    <t>Q6A, Q6B</t>
-  </si>
-  <si>
-    <t>Si7021-A20 - Temp</t>
-  </si>
-  <si>
-    <t>Solar Panel</t>
-  </si>
-  <si>
-    <t>Monocryst Solar Cell 184MW 4.15V</t>
-  </si>
-  <si>
-    <t>BT2A, BT2B</t>
-  </si>
-  <si>
-    <t>Solar panel</t>
-  </si>
-  <si>
-    <t>SPST</t>
-  </si>
-  <si>
-    <t>Keypad Switch, 1 Switches, SPST, Momentary-tactile, 0.05A, 50VDC, 2.55N, Solder Terminal, Surface Mount-straight</t>
-  </si>
-  <si>
-    <t>S1A, S1B</t>
-  </si>
-  <si>
-    <t>TCA6408ARGTR</t>
-  </si>
-  <si>
-    <t>Parallel I/O Port, 8-Bit, 8 I/O, CMOS, PQCC16</t>
-  </si>
-  <si>
-    <t>Q3A, Q3B, Q4A, Q4B</t>
-  </si>
-  <si>
-    <t>TCA6408ARGTR - IO Expander</t>
-  </si>
-  <si>
-    <t>TPS22919</t>
-  </si>
-  <si>
-    <t>Buffer/Inverter Based Peripheral Driver, 3A, PDSO6</t>
-  </si>
-  <si>
-    <t>Q5A, Q5B, Q8</t>
-  </si>
-  <si>
-    <t>TPS22919DCKR - Load SW</t>
-  </si>
-  <si>
-    <t>SRV05-4-P-T7</t>
-  </si>
-  <si>
-    <t>Trans Voltage Suppressor Diode, 300W, 5V V(RWM), Unidirectional, 1 Element, Silicon</t>
-  </si>
-  <si>
-    <t>D2A, D2B</t>
-  </si>
-  <si>
-    <t>TVS</t>
-  </si>
-  <si>
-    <t>D_TVS_Diode</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5.5V 6TSOP</t>
-  </si>
-  <si>
-    <t>Female USB Type C</t>
-  </si>
-  <si>
-    <t>USB-C (USB TYPE-C) Receptacle Connector 24 (6+18 Dummy) Position Surface Mount, Right Angle; Through Hole</t>
-  </si>
-  <si>
-    <t>J2A, J2B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>USB-C Power Connector</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT(10)</t>
-  </si>
-  <si>
-    <t>CONN UMC JACK STR 50 OHM SMD</t>
-  </si>
-  <si>
-    <t>J1A, J1B</t>
-  </si>
-  <si>
-    <t>U.FL_connector</t>
-  </si>
-  <si>
-    <t>U.FL connector U.FL-R-SMT(10)</t>
-  </si>
-  <si>
     <t>XTAL 38.4MHz</t>
   </si>
   <si>
     <t>Crystal 38.4000MHZ 10PF SMD</t>
   </si>
   <si>
-    <t>X1A, X1B</t>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>XRCGB38M400F1S3JR0</t>
   </si>
   <si>
     <t>32.768kHz</t>
@@ -735,13 +849,16 @@
     <t>Parallel - Fundamental Quartz Crystal, 0.032768MHz Nom</t>
   </si>
   <si>
-    <t>X2A, X2B</t>
+    <t>X2</t>
   </si>
   <si>
     <t>XTAL_32.768KHZ-T</t>
   </si>
   <si>
     <t>XTAL 32.768kHz</t>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ-T</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1237,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DCFDC1-F694-4933-B253-07F63BA5CB3E}">
-  <dimension ref="A1:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F810130-FC10-4955-90D3-8CAB1C1F0C35}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1167,11 +1284,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1208,1304 +1325,1456 @@
         <v>14</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F27" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F29" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1">
-        <v>18</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J36" s="2" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J38" s="2" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J39" s="2" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J41" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J42" s="2" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J43" s="2" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="I44" s="2" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="H51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
+++ b/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\path1691\Insane-Keyboard\HardwareDesign\PCB\InsaneKeyboard\Project Outputs for InsaneKeyboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E96296-7D59-4475-A597-7A0984ACCAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{623718BC-7B4B-45DF-8C1D-69DC6323F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{B8660F46-6A50-4FC0-A80A-AAFD68537AB8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{30D4215D-419E-4670-AF6D-0F37A15BD131}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-InsaneKeyboar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="270">
   <si>
     <t>Comment</t>
   </si>
@@ -67,18 +67,6 @@
   </si>
   <si>
     <t>Case/Package</t>
-  </si>
-  <si>
-    <t>F_Interverted</t>
-  </si>
-  <si>
-    <t>For 50Ohm impedence, Inverted F antenna</t>
-  </si>
-  <si>
-    <t>ATT1</t>
-  </si>
-  <si>
-    <t>F_Inverted</t>
   </si>
   <si>
     <t>Battery 1000mAh</t>
@@ -361,6 +349,24 @@
   </si>
   <si>
     <t>SRV05-4.TCT</t>
+  </si>
+  <si>
+    <t>0.1" M Header</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>2-PIN_MALE_HEADER_01-IN</t>
+  </si>
+  <si>
+    <t>PRPC002SAAN-RC</t>
+  </si>
+  <si>
+    <t>Bulk</t>
   </si>
   <si>
     <t>Mini SWD</t>
@@ -1237,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F810130-FC10-4955-90D3-8CAB1C1F0C35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5EBB1F-F30B-47DB-ABE6-FA267DD485E6}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1304,67 +1310,67 @@
         <v>1</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1379,692 +1385,696 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F28" s="1">
         <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2072,649 +2082,649 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F32" s="1">
         <v>2</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F46" s="1">
         <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="F50" s="1">
         <v>38</v>
@@ -2726,52 +2736,52 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>

--- a/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
+++ b/HardwareDesign/PCB/InsaneKeyboard/Project Outputs for InsaneKeyboard/BOM/Bill of Materials-InsaneKeyboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\path1691\Insane-Keyboard\HardwareDesign\PCB\InsaneKeyboard\Project Outputs for InsaneKeyboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623718BC-7B4B-45DF-8C1D-69DC6323F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A369E6E-C0D4-473B-96DD-F956AECEDECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{30D4215D-419E-4670-AF6D-0F37A15BD131}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{829625E8-43B9-49A2-BEC4-FF12A547FFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-InsaneKeyboar" sheetId="1" r:id="rId1"/>
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5EBB1F-F30B-47DB-ABE6-FA267DD485E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C7360-7A52-4FBB-91FE-2CA0DAA27F48}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2788,6 +2788,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>